--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Stoliczka/Ferdinand_Stoliczka.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Stoliczka/Ferdinand_Stoliczka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand Stoliczka, en tchèque : Ferdinand Stolička, né à une date incertaine en 1838[1] à Bílany près de Kremsier (en margraviat de Moravie) et mort le 19 juin 1874[2] à Shayok River[Quoi ?] (dans la province[Selon qui ?] du Ladakh), est un géologue, un paléontologue et un zoologiste britannique d'origine morave.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Stoliczka, en tchèque : Ferdinand Stolička, né à une date incertaine en 1838 à Bílany près de Kremsier (en margraviat de Moravie) et mort le 19 juin 1874 à Shayok River[Quoi ?] (dans la province[Selon qui ?] du Ladakh), est un géologue, un paléontologue et un zoologiste britannique d'origine morave.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la géologie et la paléontologie à Prague et à l'université de Vienne et suit les cours des professeurs Eduard Sueß (1831-1914) et Rudolf Hoernes (1850-1912).
 En 1859, il présente à l'Académie des sciences de Vienne une communication sur des mollusques d'eau douce datant du crétacé découverts dans des roches du nord-est des Alpes.
